--- a/Turma Home Jan2018/1° Sabado/Aula 3/Time Se E e Ou.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 3/Time Se E e Ou.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.rosa\Desktop\TeachX.git\trunk\Turma 462 - Outubro 2017\Aula 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80643735\Desktop\TeachX.git\trunk\Turma Home Jan2018\1° Sabado\Aula 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DB41A-4196-491C-A3A9-66F48B12ADD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="=Ou" sheetId="1" r:id="rId1"/>
     <sheet name="=E" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -647,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:G12"/>
     </sheetView>
   </sheetViews>
@@ -851,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,14 +912,7 @@
       <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="b">
-        <f>AND(C5&gt;=45,D5&gt;=10)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f>IF(AND(C5&gt;=45,D5&gt;=10),"Finalista","")</f>
-        <v/>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -925,14 +927,7 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="b">
-        <f t="shared" ref="F6:F12" si="0">AND(C6&gt;=45,D6&gt;=10)</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" ref="G6:G12" si="1">IF(AND(C6&gt;=45,D6&gt;=10),"Finalista","")</f>
-        <v>Finalista</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -947,14 +942,7 @@
       <c r="E7" s="1">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -969,14 +957,7 @@
       <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -991,14 +972,7 @@
       <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Finalista</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1013,14 +987,7 @@
       <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1035,14 +1002,7 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Finalista</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -1057,14 +1017,7 @@
       <c r="E12" s="1">
         <v>11</v>
       </c>
-      <c r="F12" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
